--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Malta College of Arts, Science &amp; Technology\6.2A\Semester 2\Research Design 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Research-Design-1\lit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EFCFA1-7512-488E-80E4-F7CA5634E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D97561C-E4CB-4C97-8A2E-C6C41E61D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3285" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Number</t>
   </si>
@@ -67,13 +67,22 @@
     <t>Start Up</t>
   </si>
   <si>
-    <t>SBA Fact Sheet</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>SBA Fact Sheet and Scoreboard</t>
+    <t>The Effects of Using Business Intelligence Systems on an Excellence</t>
+  </si>
+  <si>
+    <t>The influence of Business Intelligence capacity, network learning and innovativeness on startups performance</t>
+  </si>
+  <si>
+    <t>EU - SBA Fact Sheet 2019</t>
+  </si>
+  <si>
+    <t>Malta - SBA Fact Sheet 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key-success-factors-for-business-incubators-in-europe-an-empirical</t>
   </si>
 </sst>
 </file>
@@ -111,11 +120,9 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6AA00D-A22F-4BC9-A0E5-4BB284AD5E15}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -479,17 +486,47 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -499,11 +536,22 @@
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -513,13 +561,48 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Research-Design-1\lit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\workspace\com.mcast\com.mcast.projects.bendaoulIsmael2022\Research-Design-1\lit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D97561C-E4CB-4C97-8A2E-C6C41E61D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7378F405-CDFB-4B92-B800-C7473158C088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Number</t>
   </si>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,9 @@
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">

--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\workspace\com.mcast\com.mcast.projects.bendaoulIsmael2022\Research-Design-1\lit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Malta College of Arts, Science &amp; Technology\6.2A\Semester 2\Research Design 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7378F405-CDFB-4B92-B800-C7473158C088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44A5BF-4688-44D8-AD96-EC4B1DA53436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Number</t>
   </si>
@@ -67,22 +67,28 @@
     <t>Start Up</t>
   </si>
   <si>
+    <t>SBA Fact Sheet</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
+    <t>SBA Fact Sheet and Scoreboard</t>
+  </si>
+  <si>
     <t>The Effects of Using Business Intelligence Systems on an Excellence</t>
   </si>
   <si>
     <t>The influence of Business Intelligence capacity, network learning and innovativeness on startups performance</t>
   </si>
   <si>
-    <t>EU - SBA Fact Sheet 2019</t>
-  </si>
-  <si>
-    <t>Malta - SBA Fact Sheet 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Key-success-factors-for-business-incubators-in-europe-an-empirical</t>
+    <t>Key-success-factors-for-business-incubators-in-europe-an-empirical</t>
+  </si>
+  <si>
+    <t>Malta - 2017 SBA Fact Sheet</t>
+  </si>
+  <si>
+    <t>Malta - 2018 Fact Sheet</t>
   </si>
 </sst>
 </file>
@@ -118,11 +124,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6AA00D-A22F-4BC9-A0E5-4BB284AD5E15}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,47 +497,41 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>2018</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2019</v>
-      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -536,21 +541,16 @@
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,47 +561,57 @@
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Malta College of Arts, Science &amp; Technology\6.2A\Semester 2\Research Design 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu-my.sharepoint.com/personal/ismael_bendaoud_b43008_mcast_edu_mt/Documents/6.2A/Semester 2/Research Design 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44A5BF-4688-44D8-AD96-EC4B1DA53436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{59EDD4CA-6300-4390-9F72-31FFFB86B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1690E71C-3C56-409B-B8C4-1290D58CB7DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>Number</t>
   </si>
@@ -67,15 +67,9 @@
     <t>Start Up</t>
   </si>
   <si>
-    <t>SBA Fact Sheet</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>SBA Fact Sheet and Scoreboard</t>
-  </si>
-  <si>
     <t>The Effects of Using Business Intelligence Systems on an Excellence</t>
   </si>
   <si>
@@ -89,6 +83,21 @@
   </si>
   <si>
     <t>Malta - 2018 Fact Sheet</t>
+  </si>
+  <si>
+    <t>EU-Startup-Monitor-2018 Report</t>
+  </si>
+  <si>
+    <t>European Startups Monitor 2019</t>
+  </si>
+  <si>
+    <t>SBA Fact Sheet 2019</t>
+  </si>
+  <si>
+    <t>SBA Fact Sheet and Scoreboard 2019</t>
+  </si>
+  <si>
+    <t>Tables</t>
   </si>
 </sst>
 </file>
@@ -449,26 +458,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6AA00D-A22F-4BC9-A0E5-4BB284AD5E15}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -492,126 +501,234 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" s="2">
+        <v>2018</v>
+      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="B3" s="2">
+        <v>2018</v>
+      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>2019</v>
+      </c>
       <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu-my.sharepoint.com/personal/ismael_bendaoud_b43008_mcast_edu_mt/Documents/6.2A/Semester 2/Research Design 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu-my.sharepoint.com/personal/ismael_bendaoud_b43008_mcast_edu_mt/Documents/6.2A/Semester 2/Research Design 1/lit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{59EDD4CA-6300-4390-9F72-31FFFB86B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1690E71C-3C56-409B-B8C4-1290D58CB7DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C1528A-6706-4CEB-BD40-199931C28E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-20610" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>Number</t>
   </si>
@@ -73,18 +73,9 @@
     <t>The Effects of Using Business Intelligence Systems on an Excellence</t>
   </si>
   <si>
-    <t>The influence of Business Intelligence capacity, network learning and innovativeness on startups performance</t>
-  </si>
-  <si>
     <t>Key-success-factors-for-business-incubators-in-europe-an-empirical</t>
   </si>
   <si>
-    <t>Malta - 2017 SBA Fact Sheet</t>
-  </si>
-  <si>
-    <t>Malta - 2018 Fact Sheet</t>
-  </si>
-  <si>
     <t>EU-Startup-Monitor-2018 Report</t>
   </si>
   <si>
@@ -97,7 +88,10 @@
     <t>SBA Fact Sheet and Scoreboard 2019</t>
   </si>
   <si>
-    <t>Tables</t>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Interactive Visualization Of Large Data Sets</t>
   </si>
 </sst>
 </file>
@@ -121,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,19 +123,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,64 +473,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6AA00D-A22F-4BC9-A0E5-4BB284AD5E15}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="101.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>2018</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
@@ -529,44 +544,43 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2"/>
@@ -574,20 +588,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>2019</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2"/>
@@ -595,19 +610,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>2019</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,118 +634,72 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2018</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lit/Book1.xlsx
+++ b/lit/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu-my.sharepoint.com/personal/ismael_bendaoud_b43008_mcast_edu_mt/Documents/6.2A/Semester 2/Research Design 1/lit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C1528A-6706-4CEB-BD40-199931C28E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{E1C1528A-6706-4CEB-BD40-199931C28E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43528EB9-6020-4A6E-AD40-F58127F2D639}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4575" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCE70A54-71E8-4AF7-A5DF-03B13237A40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Number</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Interactive Visualization Of Large Data Sets</t>
+  </si>
+  <si>
+    <t>Invest In Malta</t>
+  </si>
+  <si>
+    <t>Extending the Understanding of Business Intelligence and Its Application in Startups</t>
+  </si>
+  <si>
+    <t>Business Start Malta</t>
   </si>
 </sst>
 </file>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +165,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +489,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +709,78 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
